--- a/statistics/HistoricalDistanceData/historical_distance/Q7076933-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q7076933-en.xlsx
@@ -31,22 +31,22 @@
     <t>uri</t>
   </si>
   <si>
+    <t>WPC Surface Analysis Archive</t>
+  </si>
+  <si>
     <t>Japanese typhoon makes Minnesota rain</t>
   </si>
   <si>
-    <t>WPC Surface Analysis Archive</t>
-  </si>
-  <si>
     <t>1-01-01T00:00:00UTC</t>
   </si>
   <si>
     <t>unknown</t>
   </si>
   <si>
+    <t>http://www.wpc.ncep.noaa.gov/archives/web_pages/sfc/sfc_archive_maps.php?arcdate=10/07/2009&amp;selmap=2009100715&amp;maptype=satsfcnps</t>
+  </si>
+  <si>
     <t>https://web.archive.org/web/20091021193227/http://www.minnpost.com/pauldouglas/2009/10/14/12472/japanese_typhoon_makes_minnesota_rain</t>
-  </si>
-  <si>
-    <t>http://www.wpc.ncep.noaa.gov/archives/web_pages/sfc/sfc_archive_maps.php?arcdate=10/07/2009&amp;selmap=2009100715&amp;maptype=satsfcnps</t>
   </si>
 </sst>
 </file>
